--- a/biology/Botanique/Hystrix_(plante)/Hystrix_(plante).xlsx
+++ b/biology/Botanique/Hystrix_(plante)/Hystrix_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hystrix est un genre de plantes monocotylédones de la famille des Poaceae, 
-sous-famille des Pooideae[2], originaire d'Asie et d'Amérique du Nord, qui comprend une dizaine d'espèces acceptées.
+sous-famille des Pooideae, originaire d'Asie et d'Amérique du Nord, qui comprend une dizaine d'espèces acceptées.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2007, Ellneskog-Staam et al. proposent de regrouper les espèces H. longearistata, H. duthiei et H. coreana au sein du genre Leymus et les espèces H. patula et  H. komarovii au sein du genre Elymus[3]. En 2009, Zhang et al. proposent de renommer Hystrix patula en Elymus hystrix[4]. 
-Liste d'espèces
-Selon The Plant List            (26 mai 2018)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, Ellneskog-Staam et al. proposent de regrouper les espèces H. longearistata, H. duthiei et H. coreana au sein du genre Leymus et les espèces H. patula et  H. komarovii au sein du genre Elymus. En 2009, Zhang et al. proposent de renommer Hystrix patula en Elymus hystrix. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hystrix_(plante)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystrix_(plante)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (26 mai 2018) :
 Hystrix californica (Bol.) Kuntze
 Hystrix coreana (Honda) Ohwi
 Hystrix duthiei (Stapf) Bor
@@ -525,9 +574,43 @@
 Hystrix komarovii (Roshev.) Ohwi
 Hystrix laevis (Petrie) Allan
 Hystrix patula Moench
-Hystrix sibirica (Trautv.) Kuntze
-Synonymes
-Selon BioLib                    (26 mai 2018)[6] :
+Hystrix sibirica (Trautv.) Kuntze</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hystrix_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystrix_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 mai 2018) :
 Asperella Humb.
 Cockaynea Zotov
 Gymnostichum Schreb.
